--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44377</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45624</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>45251</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>45411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>45411.65774305556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>44349.64474537037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>45734.59789351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44339</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44389</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44530</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44441</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45618.59756944444</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>45897.28859953704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45819.47195601852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45915.36554398148</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>45931.39806712963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44627.9190625</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>45937.38243055555</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>45841</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>45776.48415509259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>45946.41099537037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>45832</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>45974</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>45974</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>45237</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>45853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>45734.6059837963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>45700.3262962963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>45762.56619212963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45776</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>45503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44285.6284837963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44278</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44351</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44267</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44379</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44525</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>44265</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>44797</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44445.60908564815</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44257</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44532.44113425926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44479</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44488.72770833333</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44442.70611111111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44412.78136574074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44267</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44484.56916666667</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44825.57694444444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44831.55696759259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44351.48048611111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44532.43004629629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44441.60780092593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44393</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44539</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44613</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44797</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44237</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44868.61140046296</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44553.44221064815</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44257</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44658.49731481481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44658.51559027778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44538</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44770.66182870371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>44246</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>44545</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>44496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44721</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44673</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44553.43238425926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>45488</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>44967.58563657408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>45523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>45463.69828703703</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>45313</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>45579</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>45191.69444444445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44914</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44914.61438657407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45322.65049768519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>45456</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>44810.56791666667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>45558.55979166667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>45386</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44512</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44999.88789351852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>45583.36162037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>45762</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>45798.38157407408</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45798</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>45798</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45138</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>45480.54915509259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>45798.36815972222</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45798.37822916666</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>45669.71475694444</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44530</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>45798.37075231481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>45798.37363425926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>45798</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>45798.37938657407</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>45887.55859953703</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44945.43571759259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>45803.43010416667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>45749.34443287037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>45159</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>45887.55572916667</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>45810.66447916667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>45810.65856481482</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>45810.66362268518</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>45810.69605324074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45888.30837962963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44888.57140046296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44623.68829861111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44915</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45812.40445601852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44701.40878472223</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44741</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44827</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>45671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45817.35802083334</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>45691</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>45817.67819444444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>45897.32894675926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>45897.32975694445</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>45895.76636574074</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>45897.32721064815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>45897.33090277778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>45618.59853009259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44655.78577546297</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>45896.33552083333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>45897.33193287037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>45897.34274305555</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>45897.39564814815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>45839.57179398148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>45477.60447916666</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>45532</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45846.50275462963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>45819.47072916666</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>45902.37306712963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>45903.47314814815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>45820.61172453704</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>44606</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>45903.46909722222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>44840</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>45719.5787037037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45905.91143518518</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>45905.91082175926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>45905.92460648148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45908.6871875</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>45905.90875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>45905.90976851852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>45910</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>45824.51021990741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>45910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>45910</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>45910.42025462963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>45910</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>45910</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>45910.54754629629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>45915.60108796296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>45826.87413194445</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>44516.75021990741</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>45356.38356481482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>45832.57855324074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>45166</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>45832.57935185185</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>45833.68644675926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44722</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>45219.32967592592</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45667</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>45833</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>45411.63599537037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>45834</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>45834.5888425926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>45734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>45931.58202546297</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>45035.48342592592</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>45931.39986111111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>45834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>45931.40219907407</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>45931.62083333333</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>45933.57945601852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>45933.62094907407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>45933.62429398148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>45833</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>45841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>44441</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>45841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44917</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>45560.43570601852</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>45841</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45841</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>45937.38329861111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45937.57011574074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>45937.57126157408</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>45841</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>45937.55361111111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>45401.63344907408</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>45099</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>45278</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>45401.63582175926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45035.65481481481</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>45779</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>45170.60415509259</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44470</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>45235</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>45219.69122685185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>45826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>45076</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>45672.56321759259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>45477.58703703704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44834.54392361111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>45954.47333333334</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>45873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44516</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44839</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44757.48153935185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>45674</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>45429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>45575</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>45959.44415509259</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45190</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45964.5841087963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>45966.55922453704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>45523.43164351852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45968.38443287037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45771</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45761</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45974.60434027778</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>45974</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
         <v>45974.60321759259</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>45887.55680555556</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>45974</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>45974.59898148148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45978.61762731482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45537.36153935185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>45734.59349537037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>46020.57383101852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>44967.58497685185</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>45737.56431712963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>45979.34693287037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>45981.45151620371</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>45980.01403935185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>45329</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>45980.82129629629</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>45603.61458333334</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>45982.55881944444</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>45672.56981481481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>45189.64144675926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>44757.49366898148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>44628.58557870371</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>44837</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>45448</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>44847</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>44847</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>45993.67482638889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>45992.55136574074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>45176.55569444445</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44530</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>44936.47363425926</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>45629</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>45264.57892361111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>44757</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17923,7 +17923,7 @@
         <v>45077.56179398148</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>45077.56442129629</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>45999.66793981481</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18094,7 +18094,7 @@
         <v>45719.57665509259</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>45999.46914351852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>45448.66190972222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>45404</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         <v>45775</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         <v>45551</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>45273</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>44988</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18560,7 +18560,7 @@
         <v>46044</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>45618.59935185185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>44671</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>46044</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>44896</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>46007.4880324074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>44957.46186342592</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>44467</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44897</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>46051.51982638889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>46009.44358796296</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>46051.52146990741</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>46007.91685185185</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>46051.52265046296</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45034.91637731482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>45106</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>46013.40564814815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>45764</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>45764</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44810.44481481481</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44810.64696759259</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>44755</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>46010.63621527778</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>45974</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>45159.55391203704</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44476.62849537037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>45219.71002314815</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45219.30594907407</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>45152.56538194444</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>44456</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>45366.67637731481</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45463.7021875</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44751.34050925926</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45547</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44545</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45618.59675925926</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>45618.59804398148</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>45579</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44574</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>45510.66086805556</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>45189.63728009259</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>45734</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>45734.5908449074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>45734.59259259259</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45219.69724537037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45170.60081018518</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44363.54297453703</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>45553.41850694444</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45392.63758101852</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44911.4296412037</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45021</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45392.56596064815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>45370.47395833334</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>45370.53177083333</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45051</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>45770.57755787037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>44985</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>45764</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>45401</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>45160.69415509259</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44810.59604166666</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>45098.62</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>45358.75983796296</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>45261</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45680</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44236</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44236</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>45480</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>45264.60923611111</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45770.56731481481</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44908.45452546296</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>45076</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44581</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44839</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>45078.40652777778</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>45418</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>45558</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>45595.51947916667</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44733</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>45273.65958333333</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44757.3716087963</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44529.6944212963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>45227.3034837963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>45551.43763888889</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>45762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44438.43557870371</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44678.5628125</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44428.42920138889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44658</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44658.50546296296</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>45734</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>45734.59141203704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24028,7 +24028,7 @@
         <v>44508.71445601852</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24085,7 +24085,7 @@
         <v>45779.38344907408</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24147,7 +24147,7 @@
         <v>45603.57417824074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24204,7 +24204,7 @@
         <v>45783.49538194444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>45667</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>45630.37325231481</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>45601.36454861111</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>45303.50130787037</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>45665</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>45525.53819444445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24603,7 +24603,7 @@
         <v>45480.5384375</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>45665</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44377</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45624</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>45251</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>45411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>45411.65774305556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>44349.64474537037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>45734.59789351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44339</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44389</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44530</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44441</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45618.59756944444</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>45897.28859953704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45819.47195601852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45915.36554398148</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>45931.39806712963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44627.9190625</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>45937.38243055555</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>45841</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>45776.48415509259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>45946.41099537037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>45832</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>45974</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>45974</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>45237</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>45853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>45734.6059837963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>45700.3262962963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>45762.56619212963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45776</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>45503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44285.6284837963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44278</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44351</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44267</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44379</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44525</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>44265</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>44797</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44445.60908564815</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44257</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44532.44113425926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44479</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44488.72770833333</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44442.70611111111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44412.78136574074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44267</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44484.56916666667</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44825.57694444444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44831.55696759259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44351.48048611111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44532.43004629629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44441.60780092593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44393</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44539</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44613</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44797</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>44237</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>44868.61140046296</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44553.44221064815</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44257</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44658.49731481481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44658.51559027778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>44538</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44770.66182870371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>44246</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>44545</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>44496</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44721</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44673</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>44553.43238425926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>45488</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>44967.58563657408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>45523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>45463.69828703703</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>45313</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>45579</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>45191.69444444445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>44914</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44914.61438657407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45322.65049768519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>45456</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>44810.56791666667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>45558.55979166667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>45386</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44512</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>44999.88789351852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>45583.36162037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>45762</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>45798.38157407408</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45798</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>45798</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45138</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>45480.54915509259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>45798.36815972222</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45798.37822916666</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>45669.71475694444</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44530</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>45798.37075231481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>45798.37363425926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>45798</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>45798.37938657407</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>45887.55859953703</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44945.43571759259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>45803.43010416667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>45749.34443287037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>45159</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>45887.55572916667</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>45810.66447916667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>45810.65856481482</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>45810.66362268518</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>45810.69605324074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45888.30837962963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44888.57140046296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44623.68829861111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44915</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45812.40445601852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44701.40878472223</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44741</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44827</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>45671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45817.35802083334</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>45691</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>45817.67819444444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>45897.32894675926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>45897.32975694445</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>45895.76636574074</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>45897.32721064815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>45897.33090277778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>45618.59853009259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44655.78577546297</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>45896.33552083333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>45897.33193287037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>45897.34274305555</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>45897.39564814815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>45839.57179398148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>45477.60447916666</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>45532</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45846.50275462963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>45819.47072916666</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>45902.37306712963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>45903.47314814815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>45820.61172453704</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>44606</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>45903.46909722222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>44840</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>45719.5787037037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45905.91143518518</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>45905.91082175926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>45905.92460648148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45908.6871875</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>45905.90875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>45905.90976851852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>45910</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>45824.51021990741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>45910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>45910</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>45910.42025462963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>45910</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>45910</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>45910.54754629629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>45915.60108796296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>45826.87413194445</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>44516.75021990741</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>45356.38356481482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>45832.57855324074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>45166</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>45832.57935185185</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>45833.68644675926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>44722</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>45219.32967592592</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45667</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>45833</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>45411.63599537037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>45834</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>45834.5888425926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>45734</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>45931.58202546297</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>45035.48342592592</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>45931.39986111111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>45834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>45931.40219907407</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>45931.62083333333</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>45933.57945601852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>45933.62094907407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>45933.62429398148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>45833</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>45841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>44441</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>45841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>44917</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>45560.43570601852</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>45841</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45841</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>45937.38329861111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45937.57011574074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>45937.57126157408</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>45841</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>45937.55361111111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>45401.63344907408</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>45099</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>45278</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>45401.63582175926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45035.65481481481</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>45779</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>45170.60415509259</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44470</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>45235</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>45219.69122685185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>45826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>45076</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>45672.56321759259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>45477.58703703704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44834.54392361111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>45954.47333333334</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>45873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44516</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44839</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44757.48153935185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>45674</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>45429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>45575</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>45959.44415509259</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45190</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45964.5841087963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>45966.55922453704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>45523.43164351852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45968.38443287037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45771</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45761</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45974.60434027778</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>45974</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
         <v>45974.60321759259</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>45887.55680555556</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>45974</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16183,7 +16183,7 @@
         <v>45974.59898148148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45978.61762731482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45537.36153935185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>45734.59349537037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>46020.57383101852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>44967.58497685185</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>45737.56431712963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>45979.34693287037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>45981.45151620371</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>45980.01403935185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>45329</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>45980.82129629629</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>45603.61458333334</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>45982.55881944444</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>45672.56981481481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>45189.64144675926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>44757.49366898148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>44628.58557870371</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>44837</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>45448</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>44847</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>44847</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>45993.67482638889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>45992.55136574074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>45176.55569444445</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44530</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>44936.47363425926</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>45629</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>45264.57892361111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>44757</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17923,7 +17923,7 @@
         <v>45077.56179398148</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>45077.56442129629</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>45999.66793981481</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18094,7 +18094,7 @@
         <v>45719.57665509259</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>45999.46914351852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>45448.66190972222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>45404</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         <v>45775</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         <v>45551</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>45273</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>44988</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18560,7 +18560,7 @@
         <v>46044</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>45618.59935185185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>44671</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>46044</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>44896</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>46007.4880324074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>44957.46186342592</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>44467</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44897</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>46051.51982638889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>46009.44358796296</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>46051.52146990741</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>46007.91685185185</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>46051.52265046296</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45034.91637731482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>45106</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>46013.40564814815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>45764</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>45764</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44810.44481481481</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44810.64696759259</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>44755</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>46010.63621527778</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>45974</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>45159.55391203704</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44476.62849537037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>45219.71002314815</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45219.30594907407</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>45152.56538194444</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>44456</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>45366.67637731481</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45463.7021875</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44751.34050925926</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45547</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44545</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45618.59675925926</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>45618.59804398148</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>45579</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44574</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>45510.66086805556</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>45189.63728009259</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>45734</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
         <v>45734.5908449074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>45734.59259259259</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45219.69724537037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45170.60081018518</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44363.54297453703</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>45553.41850694444</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45392.63758101852</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>44911.4296412037</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45021</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45392.56596064815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>45370.47395833334</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>45370.53177083333</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45051</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>45770.57755787037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>44985</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>45764</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>45401</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>45160.69415509259</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44810.59604166666</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>45098.62</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>45358.75983796296</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>45261</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45680</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44236</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44236</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>45480</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>45264.60923611111</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45770.56731481481</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44908.45452546296</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>45076</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44581</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44839</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>45078.40652777778</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>45418</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>45558</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>45595.51947916667</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44733</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>45273.65958333333</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44757.3716087963</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44529.6944212963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>45227.3034837963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>45551.43763888889</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>45762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44438.43557870371</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44678.5628125</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44428.42920138889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44658</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44658.50546296296</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>45734</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>45734.59141203704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24028,7 +24028,7 @@
         <v>44508.71445601852</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24085,7 +24085,7 @@
         <v>45779.38344907408</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24147,7 +24147,7 @@
         <v>45603.57417824074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24204,7 +24204,7 @@
         <v>45783.49538194444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>45667</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>45630.37325231481</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>45601.36454861111</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>45303.50130787037</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>45665</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>45525.53819444445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24603,7 +24603,7 @@
         <v>45480.5384375</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>45665</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44377</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>45624</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>45251</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>45411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>45411.65774305556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>44349.64474537037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>45734.59789351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44339</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44389</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44530</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44441</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45618.59756944444</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>45819.47195601852</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>45897.28859953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45841</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>45776.48415509259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44627.9190625</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>45832</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>45931.39806712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>45937.38243055555</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45946.41099537037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>45237</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>45974</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>45974</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>45853</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>45734.6059837963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>45915.36554398148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>45700.3262962963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>45762.56619212963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45776</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>45503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44285.6284837963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44351</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         <v>44267</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44379</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44525</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>44265</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>44797</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44445.60908564815</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44257</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44532.44113425926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44479</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44488.72770833333</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44442.70611111111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44412.78136574074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44267</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44484.56916666667</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44614</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44825.57694444444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>44831.55696759259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44351.48048611111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>44532.43004629629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44441.60780092593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44393</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>44472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>44539</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44683</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>44613</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44797</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>44868.61140046296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>44553.44221064815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44658.49731481481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>44658.51559027778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44538</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44785</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>44770.66182870371</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>44545</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         <v>44468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>44333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>44333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44673</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>44553.43238425926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44967.58563657408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>45488</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>45463.69828703703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>45313</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>45523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>45579</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>45191.69444444445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>44914</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>44914.61438657407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>44623</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>45322.65049768519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>45456</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44810.56791666667</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>45386</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7080,7 +7080,7 @@
         <v>45558.55979166667</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>44999.88789351852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>44512</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>45762</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>45583.36162037037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>45138</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44945.43571759259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45159</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44915</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44827</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>44701.40878472223</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>45817.67819444444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>44888.57140046296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>44623.68829861111</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>45819.47072916666</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>45887.55859953703</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>45749.34443287037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>45618.59853009259</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>44655.78577546297</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>45477.60447916666</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>45532</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>45820.61172453704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>45887.55572916667</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>45888.30837962963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>45824.51021990741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44606</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>45719.5787037037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>45826.87413194445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>45671</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>45897.32894675926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>45897.32975694445</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>45832.57855324074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>45895.76636574074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>45897.32721064815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>45897.33090277778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45896.33552083333</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45897.33193287037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>45897.34274305555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>45897.39564814815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>45832.57935185185</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9631,7 +9631,7 @@
         <v>45833.68644675926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>45839.57179398148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         <v>45846.50275462963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>45833</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45834</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>45902.37306712963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>45834.5888425926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>45903.47314814815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>45834</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44516.75021990741</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>45903.46909722222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>45833</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>45356.38356481482</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>45166</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>45905.91143518518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45841</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>45841</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>45905.91082175926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>45905.92460648148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45841</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>45841</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>45908.6871875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>45905.90875</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>45905.90976851852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45910</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44722</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>45219.32967592592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>45841</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>45667</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>45910</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>45910</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>45910.42025462963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>45411.63599537037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45910</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45910</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45910.54754629629</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45915.60108796296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>45734</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>45035.48342592592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>45779</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44470</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>44441</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>44917</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>45826</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>45560.43570601852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>45873</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>45931.58202546297</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>45401.63344907408</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>45931.39986111111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>45099</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>45931.40219907407</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>45931.62083333333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>45933.57945601852</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>45278</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>45933.62094907407</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>45933.62429398148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>45401.63582175926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>45035.65481481481</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>45170.60415509259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>45235</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>45219.69122685185</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>45937.38329861111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>45771</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>45937.57011574074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>45937.57126157408</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>45076</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>45937.55361111111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>45672.56321759259</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>45477.58703703704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>45887.55680555556</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44834.54392361111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44516</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44839</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44757.48153935185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45674</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45429</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>45575</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>45190</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>45523.43164351852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>45954.47333333334</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>45761</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>45959.44415509259</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>45537.36153935185</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>45964.5841087963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>45734.59349537037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>44967.58497685185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>45737.56431712963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>45966.55922453704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>45329</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>45968.38443287037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>45603.61458333334</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>45672.56981481481</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>45974.60434027778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>45974</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>45189.64144675926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>45974.60321759259</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>45974</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15335,7 +15335,7 @@
         <v>45974.59898148148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44757.49366898148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>45978.61762731482</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>45979.34693287037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44628.58557870371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>45981.45151620371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44837</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45980.01403935185</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45980.82129629629</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45448</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>44847</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>44847</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45982.55881944444</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45176.55569444445</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44530</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>44936.47363425926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>45993.67482638889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>45629</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>45264.57892361111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>45992.55136574074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>44757</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45077.56179398148</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>45077.56442129629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>45719.57665509259</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>45999.66793981481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45448.66190972222</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>45404</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45999.46914351852</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45775</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45273</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44988</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45618.59935185185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44671</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>46044</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44896</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44957.46186342592</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>46044</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44467</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44897</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>46051.51982638889</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17707,7 +17707,7 @@
         <v>46009.44358796296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>46051.52146990741</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45034.91637731482</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45106</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>46007.91685185185</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>44260</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>45764</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>45764</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44810.44481481481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>44810.64696759259</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>46051.52265046296</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44755</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45159.55391203704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>46013.40564814815</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44476.62849537037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>45219.71002314815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>45974</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>45219.30594907407</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>45152.56538194444</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>46020.57383101852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44456</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>46007.4880324074</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>45366.67637731481</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>45463.7021875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>46010.63621527778</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>44751.34050925926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         <v>45547</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>45659</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44545</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>45618.59675925926</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>45618.59804398148</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>45579</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>44574</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>45510.66086805556</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>45189.63728009259</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>45734</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>45734.5908449074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>45734.59259259259</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45219.69724537037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>45170.60081018518</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>44363.54297453703</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>45553.41850694444</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>45392.63758101852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>44911.4296412037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>45021</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>45392.56596064815</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>45370.47395833334</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20461,7 +20461,7 @@
         <v>45370.53177083333</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20518,7 +20518,7 @@
         <v>45051</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45770.57755787037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20632,7 +20632,7 @@
         <v>44985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45764</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45401</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>45160.69415509259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>44810.59604166666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>45098.62</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>45358.75983796296</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>45261</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>45680</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>45480</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>45264.60923611111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>45770.56731481481</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44908.45452546296</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>45076</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44581</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>44839</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>45078.40652777778</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>45418</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>45558</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>45595.51947916667</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44733</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>45273.65958333333</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44757.3716087963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44529.6944212963</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>45227.3034837963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>45551.43763888889</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>45762</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44438.43557870371</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44678.5628125</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44428.42920138889</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>44658</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>44658.50546296296</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>45734</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>45734.59141203704</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44508.71445601852</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>45779.38344907408</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>45603.57417824074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>45783.49538194444</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
         <v>45667</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22885,7 +22885,7 @@
         <v>45630.37325231481</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         <v>45601.36454861111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22999,7 +22999,7 @@
         <v>45303.50130787037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
         <v>45665</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>45525.53819444445</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>45480.5384375</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>45665</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>45798.38157407408</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>45798</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>45798</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>45480.54915509259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>45798.36815972222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>45798.37822916666</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45669.71475694444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>45798.37075231481</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45798.37363425926</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23832,7 +23832,7 @@
         <v>45798</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>45798.37938657407</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>45803.43010416667</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>45810.66447916667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24075,7 +24075,7 @@
         <v>45810.65856481482</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>45810.66362268518</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>45810.69605324074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>45812.40445601852</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>45817.35802083334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>45691</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44377</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>45624</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>45251</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>45411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>45411.65774305556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45026</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>44349.64474537037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>45734.59789351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44339</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44389</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44530</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44441</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45618.59756944444</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>45819.47195601852</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>45897.28859953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45841</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>45776.48415509259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44627.9190625</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>45832</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>45931.39806712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>45937.38243055555</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45946.41099537037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>45237</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>45974</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>45974</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>45853</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>45734.6059837963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3178,14 +3178,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 43942-2025</t>
+          <t>A 56287-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45915.36554398148</v>
+        <v>45974</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3197,11 +3197,16 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3232,442 +3237,474 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1983/artfynd/A 56287-2025 artfynd.xlsx", "A 56287-2025")</f>
+        <v/>
+      </c>
+      <c r="T31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1983/kartor/A 56287-2025 karta.png", "A 56287-2025")</f>
+        <v/>
+      </c>
+      <c r="V31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1983/klagomål/A 56287-2025 FSC-klagomål.docx", "A 56287-2025")</f>
+        <v/>
+      </c>
+      <c r="W31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1983/klagomålsmail/A 56287-2025 FSC-klagomål mail.docx", "A 56287-2025")</f>
+        <v/>
+      </c>
+      <c r="X31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1983/tillsyn/A 56287-2025 tillsynsbegäran.docx", "A 56287-2025")</f>
+        <v/>
+      </c>
+      <c r="Y31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1983/tillsynsmail/A 56287-2025 tillsynsbegäran mail.docx", "A 56287-2025")</f>
+        <v/>
+      </c>
+      <c r="Z31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1983/fåglar/A 56287-2025 prioriterade fågelarter.docx", "A 56287-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>A 43942-2025</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>45915.36554398148</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>KÖPING</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
           <t>Storgröe</t>
         </is>
       </c>
-      <c r="S31">
+      <c r="S32">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/artfynd/A 43942-2025 artfynd.xlsx", "A 43942-2025")</f>
         <v/>
       </c>
-      <c r="T31">
+      <c r="T32">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/kartor/A 43942-2025 karta.png", "A 43942-2025")</f>
         <v/>
       </c>
-      <c r="V31">
+      <c r="V32">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/klagomål/A 43942-2025 FSC-klagomål.docx", "A 43942-2025")</f>
         <v/>
       </c>
-      <c r="W31">
+      <c r="W32">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/klagomålsmail/A 43942-2025 FSC-klagomål mail.docx", "A 43942-2025")</f>
         <v/>
       </c>
-      <c r="X31">
+      <c r="X32">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/tillsyn/A 43942-2025 tillsynsbegäran.docx", "A 43942-2025")</f>
         <v/>
       </c>
-      <c r="Y31">
+      <c r="Y32">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/tillsynsmail/A 43942-2025 tillsynsbegäran mail.docx", "A 43942-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>A 6603-2025</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B33" s="1" t="n">
         <v>45700.3262962963</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>46075</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>KÖPING</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
+      <c r="C33" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>KÖPING</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
         <v>12.1</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>1</v>
       </c>
-      <c r="R32" s="2" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S32">
+      <c r="S33">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/artfynd/A 6603-2025 artfynd.xlsx", "A 6603-2025")</f>
         <v/>
       </c>
-      <c r="T32">
+      <c r="T33">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/kartor/A 6603-2025 karta.png", "A 6603-2025")</f>
         <v/>
       </c>
-      <c r="V32">
+      <c r="V33">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/klagomål/A 6603-2025 FSC-klagomål.docx", "A 6603-2025")</f>
         <v/>
       </c>
-      <c r="W32">
+      <c r="W33">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/klagomålsmail/A 6603-2025 FSC-klagomål mail.docx", "A 6603-2025")</f>
         <v/>
       </c>
-      <c r="X32">
+      <c r="X33">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/tillsyn/A 6603-2025 tillsynsbegäran.docx", "A 6603-2025")</f>
         <v/>
       </c>
-      <c r="Y32">
+      <c r="Y33">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/tillsynsmail/A 6603-2025 tillsynsbegäran mail.docx", "A 6603-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>A 18371-2025</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B34" s="1" t="n">
         <v>45762.56619212963</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>46075</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>KÖPING</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
+      <c r="C34" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>KÖPING</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
         <v>0.8</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>1</v>
       </c>
-      <c r="R33" s="2" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S33">
+      <c r="S34">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/artfynd/A 18371-2025 artfynd.xlsx", "A 18371-2025")</f>
         <v/>
       </c>
-      <c r="T33">
+      <c r="T34">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/kartor/A 18371-2025 karta.png", "A 18371-2025")</f>
         <v/>
       </c>
-      <c r="V33">
+      <c r="V34">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/klagomål/A 18371-2025 FSC-klagomål.docx", "A 18371-2025")</f>
         <v/>
       </c>
-      <c r="W33">
+      <c r="W34">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/klagomålsmail/A 18371-2025 FSC-klagomål mail.docx", "A 18371-2025")</f>
         <v/>
       </c>
-      <c r="X33">
+      <c r="X34">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/tillsyn/A 18371-2025 tillsynsbegäran.docx", "A 18371-2025")</f>
         <v/>
       </c>
-      <c r="Y33">
+      <c r="Y34">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/tillsynsmail/A 18371-2025 tillsynsbegäran mail.docx", "A 18371-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>A 20704-2025</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B35" s="1" t="n">
         <v>45776</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>46075</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>KÖPING</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
+      <c r="C35" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>KÖPING</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>2.7</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>1</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>1</v>
       </c>
-      <c r="R34" s="2" t="inlineStr">
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>Tibast</t>
         </is>
       </c>
-      <c r="S34">
+      <c r="S35">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/artfynd/A 20704-2025 artfynd.xlsx", "A 20704-2025")</f>
         <v/>
       </c>
-      <c r="T34">
+      <c r="T35">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/kartor/A 20704-2025 karta.png", "A 20704-2025")</f>
         <v/>
       </c>
-      <c r="V34">
+      <c r="V35">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/klagomål/A 20704-2025 FSC-klagomål.docx", "A 20704-2025")</f>
         <v/>
       </c>
-      <c r="W34">
+      <c r="W35">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/klagomålsmail/A 20704-2025 FSC-klagomål mail.docx", "A 20704-2025")</f>
         <v/>
       </c>
-      <c r="X34">
+      <c r="X35">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/tillsyn/A 20704-2025 tillsynsbegäran.docx", "A 20704-2025")</f>
         <v/>
       </c>
-      <c r="Y34">
+      <c r="Y35">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/tillsynsmail/A 20704-2025 tillsynsbegäran mail.docx", "A 20704-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>A 31263-2024</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B36" s="1" t="n">
         <v>45503</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>46075</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>KÖPING</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
+      <c r="C36" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>KÖPING</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
         <v>12.4</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>1</v>
       </c>
-      <c r="R35" s="2" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>Mindre bastardsvärmare</t>
         </is>
       </c>
-      <c r="S35">
+      <c r="S36">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/artfynd/A 31263-2024 artfynd.xlsx", "A 31263-2024")</f>
         <v/>
       </c>
-      <c r="T35">
+      <c r="T36">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/kartor/A 31263-2024 karta.png", "A 31263-2024")</f>
         <v/>
       </c>
-      <c r="V35">
+      <c r="V36">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/klagomål/A 31263-2024 FSC-klagomål.docx", "A 31263-2024")</f>
         <v/>
       </c>
-      <c r="W35">
+      <c r="W36">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/klagomålsmail/A 31263-2024 FSC-klagomål mail.docx", "A 31263-2024")</f>
         <v/>
       </c>
-      <c r="X35">
+      <c r="X36">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/tillsyn/A 31263-2024 tillsynsbegäran.docx", "A 31263-2024")</f>
         <v/>
       </c>
-      <c r="Y35">
+      <c r="Y36">
         <f>HYPERLINK("https://klasma.github.io/Logging_1983/tillsynsmail/A 31263-2024 tillsynsbegäran mail.docx", "A 31263-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>A 14314-2021</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>44278</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>46075</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>KÖPING</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="2" t="inlineStr"/>
-    </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 15575-2021</t>
+          <t>A 14314-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44285.6284837963</v>
+        <v>44278</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3680,7 +3717,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3717,14 +3754,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 27604-2021</t>
+          <t>A 15575-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44351</v>
+        <v>44285.6284837963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3737,7 +3774,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3774,14 +3811,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 12357-2021</t>
+          <t>A 27604-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44267</v>
+        <v>44351</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3794,7 +3831,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3831,14 +3868,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 34215-2021</t>
+          <t>A 12357-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44379</v>
+        <v>44267</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3850,13 +3887,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3893,14 +3925,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 67946-2021</t>
+          <t>A 34215-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44525</v>
+        <v>44379</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3912,8 +3944,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3950,14 +3987,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 11890-2021</t>
+          <t>A 67946-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44265</v>
+        <v>44525</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3970,7 +4007,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4007,14 +4044,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 35108-2022</t>
+          <t>A 11890-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44797</v>
+        <v>44265</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4026,13 +4063,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4069,14 +4101,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46661-2021</t>
+          <t>A 35108-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44445.60908564815</v>
+        <v>44797</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4094,7 +4126,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4131,14 +4163,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 46616-2021</t>
+          <t>A 46661-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44445</v>
+        <v>44445.60908564815</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4150,8 +4182,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4188,14 +4225,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 10435-2021</t>
+          <t>A 46616-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44257</v>
+        <v>44445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4207,13 +4244,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4250,14 +4282,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 69656-2021</t>
+          <t>A 10435-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44532.44113425926</v>
+        <v>44257</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4269,8 +4301,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4307,14 +4344,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 56249-2021</t>
+          <t>A 69656-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44479</v>
+        <v>44532.44113425926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4327,7 +4364,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4364,14 +4401,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 58551-2021</t>
+          <t>A 56249-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44488.72770833333</v>
+        <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4384,7 +4421,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4421,14 +4458,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 46343-2021</t>
+          <t>A 58551-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44442.70611111111</v>
+        <v>44488.72770833333</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4441,7 +4478,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4478,14 +4515,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 39162-2021</t>
+          <t>A 46343-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44412.78136574074</v>
+        <v>44442.70611111111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4498,7 +4535,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4535,14 +4572,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 12641-2021</t>
+          <t>A 39162-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44267</v>
+        <v>44412.78136574074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4555,7 +4592,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>10.7</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4592,14 +4629,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 57769-2021</t>
+          <t>A 12641-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44484.56916666667</v>
+        <v>44267</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4612,7 +4649,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>10.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4649,14 +4686,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 8845-2022</t>
+          <t>A 57769-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44614</v>
+        <v>44484.56916666667</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4669,7 +4706,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4706,14 +4743,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 41052-2022</t>
+          <t>A 8845-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44825.57694444444</v>
+        <v>44614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4726,7 +4763,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>5.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4763,14 +4800,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 42491-2022</t>
+          <t>A 41052-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44831.55696759259</v>
+        <v>44825.57694444444</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4783,7 +4820,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4820,14 +4857,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 27402-2021</t>
+          <t>A 42491-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44351.48048611111</v>
+        <v>44831.55696759259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4840,7 +4877,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4877,14 +4914,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 69645-2021</t>
+          <t>A 27402-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44532.43004629629</v>
+        <v>44351.48048611111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4897,7 +4934,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4934,14 +4971,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 45910-2021</t>
+          <t>A 69645-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44441.60780092593</v>
+        <v>44532.43004629629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4954,7 +4991,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4991,14 +5028,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 36866-2021</t>
+          <t>A 45910-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44393</v>
+        <v>44441.60780092593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5011,7 +5048,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5048,14 +5085,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 54301-2021</t>
+          <t>A 36866-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44472</v>
+        <v>44393</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5068,7 +5105,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5105,14 +5142,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 71717-2021</t>
+          <t>A 54301-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44539</v>
+        <v>44472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5125,7 +5162,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>9.300000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5162,14 +5199,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 17810-2022</t>
+          <t>A 71717-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44683</v>
+        <v>44539</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5182,7 +5219,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5219,14 +5256,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 8687-2022</t>
+          <t>A 17810-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44613</v>
+        <v>44683</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5239,7 +5276,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5276,14 +5313,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 35144-2022</t>
+          <t>A 8687-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44797</v>
+        <v>44613</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5296,7 +5333,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5333,14 +5370,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 10431-2021</t>
+          <t>A 35144-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44257</v>
+        <v>44797</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5352,13 +5389,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5395,14 +5427,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 51203-2022</t>
+          <t>A 10431-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44868.61140046296</v>
+        <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5414,8 +5446,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5452,14 +5489,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 73890-2021</t>
+          <t>A 51203-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44553.44221064815</v>
+        <v>44868.61140046296</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5472,7 +5509,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5509,14 +5546,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 15160-2022</t>
+          <t>A 73890-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44658.49731481481</v>
+        <v>44553.44221064815</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5529,7 +5566,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5566,14 +5603,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 15165-2022</t>
+          <t>A 15160-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44658.51559027778</v>
+        <v>44658.49731481481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5586,7 +5623,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5623,14 +5660,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 70909-2021</t>
+          <t>A 15165-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44538</v>
+        <v>44658.51559027778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5643,7 +5680,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5680,14 +5717,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 33156-2022</t>
+          <t>A 70909-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44785</v>
+        <v>44538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5699,13 +5736,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5742,14 +5774,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 31193-2022</t>
+          <t>A 33156-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44770.66182870371</v>
+        <v>44785</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5767,7 +5799,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5804,14 +5836,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 72460-2021</t>
+          <t>A 31193-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44545</v>
+        <v>44770.66182870371</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5823,8 +5855,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5861,14 +5898,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 53148-2021</t>
+          <t>A 72460-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44468</v>
+        <v>44545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5880,13 +5917,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5923,14 +5955,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 60627-2021</t>
+          <t>A 53148-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44496</v>
+        <v>44468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5942,8 +5974,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5980,14 +6017,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 23624-2022</t>
+          <t>A 60627-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44721</v>
+        <v>44496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6000,7 +6037,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>14.1</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6037,14 +6074,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23592-2021</t>
+          <t>A 23624-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44333</v>
+        <v>44721</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6057,7 +6094,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>14.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6094,14 +6131,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 23596-2021</t>
+          <t>A 23592-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
         <v>44333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6114,7 +6151,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6151,14 +6188,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 16693-2022</t>
+          <t>A 23596-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44673</v>
+        <v>44333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6171,7 +6208,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6208,14 +6245,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 73888-2021</t>
+          <t>A 16693-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44553.43238425926</v>
+        <v>44673</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6228,7 +6265,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6265,14 +6302,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 6949-2023</t>
+          <t>A 73888-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44967.58563657408</v>
+        <v>44553.43238425926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6284,13 +6321,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6327,14 +6359,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 29960-2024</t>
+          <t>A 6949-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45488</v>
+        <v>44967.58563657408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6346,8 +6378,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>11.5</v>
+        <v>1.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6384,14 +6421,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25660-2024</t>
+          <t>A 29960-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45463.69828703703</v>
+        <v>45488</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6404,7 +6441,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>11.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6441,14 +6478,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 2584-2024</t>
+          <t>A 25660-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45313</v>
+        <v>45463.69828703703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6461,7 +6498,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6498,14 +6535,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 33989-2024</t>
+          <t>A 2584-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45523</v>
+        <v>45313</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6518,7 +6555,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6555,14 +6592,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 45664-2024</t>
+          <t>A 33989-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45579</v>
+        <v>45523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6575,7 +6612,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6612,14 +6649,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 45308-2023</t>
+          <t>A 45664-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45191.69444444445</v>
+        <v>45579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6632,7 +6669,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6669,14 +6706,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60894-2022</t>
+          <t>A 45308-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44914</v>
+        <v>45191.69444444445</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6689,7 +6726,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>8.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6726,14 +6763,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 60924-2022</t>
+          <t>A 60894-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44914.61438657407</v>
+        <v>44914</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6746,7 +6783,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6783,14 +6820,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 10478-2022</t>
+          <t>A 60924-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44623</v>
+        <v>44914.61438657407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6803,7 +6840,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6840,14 +6877,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 3945-2024</t>
+          <t>A 10478-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45322.65049768519</v>
+        <v>44623</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6860,7 +6897,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6897,14 +6934,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24130-2024</t>
+          <t>A 3945-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45456</v>
+        <v>45322.65049768519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6916,13 +6953,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6959,14 +6991,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 37730-2022</t>
+          <t>A 24130-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44810.56791666667</v>
+        <v>45456</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6978,8 +7010,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7016,14 +7053,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 13160-2024</t>
+          <t>A 37730-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45386</v>
+        <v>44810.56791666667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7036,7 +7073,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7073,14 +7110,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 40823-2024</t>
+          <t>A 13160-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45558.55979166667</v>
+        <v>45386</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7093,7 +7130,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7130,14 +7167,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 12503-2023</t>
+          <t>A 40823-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44999.88789351852</v>
+        <v>45558.55979166667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7150,7 +7187,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7187,14 +7224,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 65023-2021</t>
+          <t>A 12503-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44512</v>
+        <v>44999.88789351852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7207,7 +7244,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>6.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7244,14 +7281,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 18366-2025</t>
+          <t>A 65023-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45762</v>
+        <v>44512</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7264,7 +7301,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7301,14 +7338,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 46659-2024</t>
+          <t>A 18366-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45583.36162037037</v>
+        <v>45762</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7321,7 +7358,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7358,14 +7395,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 34290-2023</t>
+          <t>A 46659-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45138</v>
+        <v>45583.36162037037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7377,13 +7414,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7420,14 +7452,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 68954-2021</t>
+          <t>A 34290-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44530</v>
+        <v>45138</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7439,8 +7471,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>6.8</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7477,14 +7514,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 2868-2023</t>
+          <t>A 68954-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44945.43571759259</v>
+        <v>44530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7497,7 +7534,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>6.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7534,14 +7571,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 37752-2023</t>
+          <t>A 2868-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45159</v>
+        <v>44945.43571759259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7554,7 +7591,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7591,14 +7628,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 61083-2022</t>
+          <t>A 37752-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44915</v>
+        <v>45159</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7611,7 +7648,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>6.7</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7648,14 +7685,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 41583-2022</t>
+          <t>A 61083-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44827</v>
+        <v>44915</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7667,13 +7704,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>6.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7710,14 +7742,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 20798-2022</t>
+          <t>A 41583-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44701.40878472223</v>
+        <v>44827</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7735,7 +7767,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7772,14 +7804,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 27261-2022</t>
+          <t>A 20798-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44741</v>
+        <v>44701.40878472223</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7797,7 +7829,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7834,14 +7866,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 28073-2025</t>
+          <t>A 27261-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45817.67819444444</v>
+        <v>44741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7853,8 +7885,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7891,14 +7928,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 55720-2022</t>
+          <t>A 28073-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44888.57140046296</v>
+        <v>45817.67819444444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7911,7 +7948,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7948,14 +7985,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 10512-2022</t>
+          <t>A 55720-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44623.68829861111</v>
+        <v>44888.57140046296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7968,7 +8005,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8005,14 +8042,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 28498-2025</t>
+          <t>A 10512-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45819.47072916666</v>
+        <v>44623.68829861111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8024,13 +8061,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8067,14 +8099,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 38858-2025</t>
+          <t>A 28498-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45887.55859953703</v>
+        <v>45819.47072916666</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8092,7 +8124,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>10.4</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8129,14 +8161,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 15858-2025</t>
+          <t>A 38858-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45749.34443287037</v>
+        <v>45887.55859953703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8148,8 +8180,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>10.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8186,14 +8223,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 54870-2024</t>
+          <t>A 15858-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45618.59853009259</v>
+        <v>45749.34443287037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8205,13 +8242,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8248,14 +8280,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 14664-2022</t>
+          <t>A 54870-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44655.78577546297</v>
+        <v>45618.59853009259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8267,8 +8299,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8305,14 +8342,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 28394-2024</t>
+          <t>A 14664-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45477.60447916666</v>
+        <v>44655.78577546297</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8324,13 +8361,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8367,14 +8399,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 35684-2024</t>
+          <t>A 28394-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45532</v>
+        <v>45477.60447916666</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8386,8 +8418,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8424,14 +8461,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 28872-2025</t>
+          <t>A 35684-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45820.61172453704</v>
+        <v>45532</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8443,13 +8480,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8486,14 +8518,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 38852-2025</t>
+          <t>A 28872-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45887.55572916667</v>
+        <v>45820.61172453704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8511,7 +8543,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8548,14 +8580,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 38986-2025</t>
+          <t>A 38852-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45888.30837962963</v>
+        <v>45887.55572916667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8567,8 +8599,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8605,14 +8642,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 29346-2025</t>
+          <t>A 38986-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45824.51021990741</v>
+        <v>45888.30837962963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8625,7 +8662,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8662,14 +8699,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 7370-2022</t>
+          <t>A 29346-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44606</v>
+        <v>45824.51021990741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8682,7 +8719,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>14.4</v>
+        <v>0.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8719,14 +8756,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 44906-2022</t>
+          <t>A 7370-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44840</v>
+        <v>44606</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8739,7 +8776,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.6</v>
+        <v>14.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8776,14 +8813,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 10099-2025</t>
+          <t>A 44906-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45719.5787037037</v>
+        <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8795,13 +8832,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8838,14 +8870,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 30136-2025</t>
+          <t>A 10099-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45826.87413194445</v>
+        <v>45719.5787037037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8857,8 +8889,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8895,14 +8932,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 1926-2025</t>
+          <t>A 30136-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45671</v>
+        <v>45826.87413194445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8915,7 +8952,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8952,14 +8989,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 40702-2025</t>
+          <t>A 1926-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45897.32894675926</v>
+        <v>45671</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8971,13 +9008,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9014,14 +9046,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 40703-2025</t>
+          <t>A 40702-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45897.32975694445</v>
+        <v>45897.32894675926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9039,7 +9071,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9076,14 +9108,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 31068-2025</t>
+          <t>A 40703-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45832.57855324074</v>
+        <v>45897.32975694445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9101,7 +9133,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9138,14 +9170,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 40480-2025</t>
+          <t>A 31068-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45895.76636574074</v>
+        <v>45832.57855324074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,8 +9189,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9195,14 +9232,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 40700-2025</t>
+          <t>A 40480-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45897.32721064815</v>
+        <v>45895.76636574074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9214,13 +9251,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9257,14 +9289,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 40705-2025</t>
+          <t>A 40700-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45897.33090277778</v>
+        <v>45897.32721064815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9282,7 +9314,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9319,14 +9351,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 40502-2025</t>
+          <t>A 40705-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45896.33552083333</v>
+        <v>45897.33090277778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9338,8 +9370,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9376,14 +9413,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 40706-2025</t>
+          <t>A 40502-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45897.33193287037</v>
+        <v>45896.33552083333</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9395,13 +9432,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9438,14 +9470,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 40712-2025</t>
+          <t>A 40706-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45897.34274305555</v>
+        <v>45897.33193287037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9463,7 +9495,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9500,14 +9532,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 40762-2025</t>
+          <t>A 40712-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45897.39564814815</v>
+        <v>45897.34274305555</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9525,7 +9557,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9562,14 +9594,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 31071-2025</t>
+          <t>A 40762-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45832.57935185185</v>
+        <v>45897.39564814815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9587,7 +9619,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9624,14 +9656,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 31582-2025</t>
+          <t>A 31071-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45833.68644675926</v>
+        <v>45832.57935185185</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9643,8 +9675,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9681,14 +9718,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 32845-2025</t>
+          <t>A 31582-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45839.57179398148</v>
+        <v>45833.68644675926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9701,7 +9738,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9738,14 +9775,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 34368-2025</t>
+          <t>A 32845-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45846.50275462963</v>
+        <v>45839.57179398148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9758,7 +9795,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9795,14 +9832,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 31496-2025</t>
+          <t>A 34368-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45833</v>
+        <v>45846.50275462963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9815,7 +9852,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>7.3</v>
+        <v>3.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9852,14 +9889,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 31839-2025</t>
+          <t>A 31496-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45834</v>
+        <v>45833</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9871,13 +9908,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>2.1</v>
+        <v>7.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9914,14 +9946,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 41676-2025</t>
+          <t>A 31839-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45902.37306712963</v>
+        <v>45834</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9933,8 +9965,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9971,14 +10008,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 31830-2025</t>
+          <t>A 41676-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45834.5888425926</v>
+        <v>45902.37306712963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9990,13 +10027,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10033,14 +10065,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 41965-2025</t>
+          <t>A 31830-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45903.47314814815</v>
+        <v>45834.5888425926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10052,8 +10084,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10090,14 +10127,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 31738-2025</t>
+          <t>A 41965-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45834</v>
+        <v>45903.47314814815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10110,7 +10147,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>11.2</v>
+        <v>0.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10147,14 +10184,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 65740-2021</t>
+          <t>A 31738-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44516.75021990741</v>
+        <v>45834</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10167,7 +10204,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.5</v>
+        <v>11.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10204,14 +10241,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 41959-2025</t>
+          <t>A 65740-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45903.46909722222</v>
+        <v>44516.75021990741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10224,7 +10261,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10261,14 +10298,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 31580-2025</t>
+          <t>A 41959-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45833</v>
+        <v>45903.46909722222</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10281,7 +10318,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10318,14 +10355,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 8703-2024</t>
+          <t>A 31580-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45356.38356481482</v>
+        <v>45833</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10338,7 +10375,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10375,14 +10412,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 39646-2023</t>
+          <t>A 8703-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45166</v>
+        <v>45356.38356481482</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10395,7 +10432,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>9.300000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10432,14 +10469,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 42640-2025</t>
+          <t>A 39646-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45905.91143518518</v>
+        <v>45166</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10451,13 +10488,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>2.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10494,14 +10526,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 33505-2025</t>
+          <t>A 42640-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45841</v>
+        <v>45905.91143518518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10519,7 +10551,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10556,14 +10588,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 33491-2025</t>
+          <t>A 33505-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
         <v>45841</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10581,7 +10613,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10618,14 +10650,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 42639-2025</t>
+          <t>A 33491-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45905.91082175926</v>
+        <v>45841</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10643,7 +10675,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10680,14 +10712,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 42641-2025</t>
+          <t>A 42639-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45905.92460648148</v>
+        <v>45905.91082175926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10705,7 +10737,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10742,14 +10774,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 33503-2025</t>
+          <t>A 42641-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45841</v>
+        <v>45905.92460648148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10767,7 +10799,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10804,14 +10836,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 33508-2025</t>
+          <t>A 33503-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
         <v>45841</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10829,7 +10861,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10866,14 +10898,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 42905-2025</t>
+          <t>A 33508-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45908.6871875</v>
+        <v>45841</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10885,8 +10917,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>2.2</v>
+        <v>5.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10923,14 +10960,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 42637-2025</t>
+          <t>A 42905-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45905.90875</v>
+        <v>45908.6871875</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10942,13 +10979,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10985,14 +11017,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 42638-2025</t>
+          <t>A 42637-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45905.90976851852</v>
+        <v>45905.90875</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11010,7 +11042,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>6.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11047,14 +11079,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 43179-2025</t>
+          <t>A 42638-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45910</v>
+        <v>45905.90976851852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11066,8 +11098,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11104,14 +11141,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 23791-2022</t>
+          <t>A 43179-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44722</v>
+        <v>45910</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11161,14 +11198,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 51132-2023</t>
+          <t>A 23791-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45219.32967592592</v>
+        <v>44722</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11181,7 +11218,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11218,14 +11255,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 33499-2025</t>
+          <t>A 51132-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45841</v>
+        <v>45219.32967592592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11237,13 +11274,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11280,14 +11312,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 1181-2025</t>
+          <t>A 33499-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45667</v>
+        <v>45841</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11299,8 +11331,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11337,14 +11374,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 43174-2025</t>
+          <t>A 1181-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45910</v>
+        <v>45667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11357,7 +11394,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11394,14 +11431,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 43183-2025</t>
+          <t>A 43174-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
         <v>45910</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11414,7 +11451,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11451,14 +11488,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 43192-2025</t>
+          <t>A 43183-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45910.42025462963</v>
+        <v>45910</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11470,13 +11507,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11513,14 +11545,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 16907-2024</t>
+          <t>A 43192-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45411.63599537037</v>
+        <v>45910.42025462963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11538,7 +11570,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11575,14 +11607,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 43171-2025</t>
+          <t>A 16907-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45910</v>
+        <v>45411.63599537037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11594,8 +11626,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11632,14 +11669,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 43187-2025</t>
+          <t>A 43171-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
         <v>45910</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11652,7 +11689,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11689,14 +11726,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 43245-2025</t>
+          <t>A 43187-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45910.54754629629</v>
+        <v>45910</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11709,7 +11746,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>7.1</v>
+        <v>0.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11746,14 +11783,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 44171-2025</t>
+          <t>A 43245-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45915.60108796296</v>
+        <v>45910.54754629629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11765,13 +11802,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>2.1</v>
+        <v>7.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11808,14 +11840,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 13041-2025</t>
+          <t>A 44171-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45734</v>
+        <v>45915.60108796296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11833,7 +11865,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11870,14 +11902,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 17295-2023</t>
+          <t>A 13041-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45035.48342592592</v>
+        <v>45734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11889,8 +11921,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11927,14 +11964,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 21157-2025</t>
+          <t>A 17295-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45779</v>
+        <v>45035.48342592592</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11947,7 +11984,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11984,14 +12021,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 53996-2021</t>
+          <t>A 21157-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44470</v>
+        <v>45779</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12004,7 +12041,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12041,14 +12078,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 45714-2021</t>
+          <t>A 53996-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44441</v>
+        <v>44470</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12061,7 +12098,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12098,14 +12135,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 61897-2022</t>
+          <t>A 45714-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44917</v>
+        <v>44441</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12118,7 +12155,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>8.1</v>
+        <v>1.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12155,14 +12192,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 30139-2025</t>
+          <t>A 61897-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45826</v>
+        <v>44917</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12175,7 +12212,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.7</v>
+        <v>8.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12212,14 +12249,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 41472-2024</t>
+          <t>A 30139-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45560.43570601852</v>
+        <v>45826</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12232,7 +12269,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12269,14 +12306,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 36726-2025</t>
+          <t>A 41472-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45873</v>
+        <v>45560.43570601852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12289,7 +12326,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12326,14 +12363,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 47681-2025</t>
+          <t>A 36726-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45931.58202546297</v>
+        <v>45873</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12346,7 +12383,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12383,14 +12420,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 15549-2024</t>
+          <t>A 47681-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45401.63344907408</v>
+        <v>45931.58202546297</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12402,13 +12439,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12445,14 +12477,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 47574-2025</t>
+          <t>A 15549-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45931.39986111111</v>
+        <v>45401.63344907408</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12470,7 +12502,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12507,14 +12539,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 28230-2023</t>
+          <t>A 47574-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45099</v>
+        <v>45931.39986111111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12526,8 +12558,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12564,14 +12601,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 47576-2025</t>
+          <t>A 28230-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45931.40219907407</v>
+        <v>45099</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12583,13 +12620,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>1.2</v>
+        <v>6.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12626,14 +12658,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 47718-2025</t>
+          <t>A 47576-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45931.62083333333</v>
+        <v>45931.40219907407</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12645,8 +12677,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12683,14 +12720,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 48276-2025</t>
+          <t>A 47718-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45933.57945601852</v>
+        <v>45931.62083333333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12703,7 +12740,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12740,14 +12777,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 64044-2023</t>
+          <t>A 48276-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45278</v>
+        <v>45933.57945601852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12797,14 +12834,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 48317-2025</t>
+          <t>A 64044-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45933.62094907407</v>
+        <v>45278</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12854,14 +12891,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 48319-2025</t>
+          <t>A 48317-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45933.62429398148</v>
+        <v>45933.62094907407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12874,7 +12911,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12911,14 +12948,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 15551-2024</t>
+          <t>A 48319-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45401.63582175926</v>
+        <v>45933.62429398148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12930,13 +12967,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12973,14 +13005,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 17380-2023</t>
+          <t>A 15551-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45035.65481481481</v>
+        <v>45401.63582175926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12992,8 +13024,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13030,14 +13067,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 40693-2023</t>
+          <t>A 17380-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45170.60415509259</v>
+        <v>45035.65481481481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13049,13 +13086,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13092,14 +13124,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 54657-2023</t>
+          <t>A 40693-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45235</v>
+        <v>45170.60415509259</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13111,8 +13143,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13149,14 +13186,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 51407-2023</t>
+          <t>A 54657-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45219.69122685185</v>
+        <v>45235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13169,7 +13206,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13206,14 +13243,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 48828-2025</t>
+          <t>A 51407-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45937.38329861111</v>
+        <v>45219.69122685185</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13225,13 +13262,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13268,14 +13300,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 19953-2025</t>
+          <t>A 48828-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45771</v>
+        <v>45937.38329861111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13287,8 +13319,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13325,14 +13362,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 48978-2025</t>
+          <t>A 19953-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45937.57011574074</v>
+        <v>45771</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13344,13 +13381,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>7.2</v>
+        <v>2.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13387,14 +13419,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 48979-2025</t>
+          <t>A 48978-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45937.57126157408</v>
+        <v>45937.57011574074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13412,7 +13444,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13449,14 +13481,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 23386-2023</t>
+          <t>A 48979-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45076</v>
+        <v>45937.57126157408</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13468,8 +13500,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13506,14 +13543,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 48962-2025</t>
+          <t>A 23386-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45937.55361111111</v>
+        <v>45076</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13526,7 +13563,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13563,14 +13600,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 2064-2025</t>
+          <t>A 48962-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45672.56321759259</v>
+        <v>45937.55361111111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13583,7 +13620,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13620,14 +13657,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 28374-2024</t>
+          <t>A 2064-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45477.58703703704</v>
+        <v>45672.56321759259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13639,13 +13676,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13682,14 +13714,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 38854-2025</t>
+          <t>A 28374-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45887.55680555556</v>
+        <v>45477.58703703704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13707,7 +13739,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13744,14 +13776,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 43303-2022</t>
+          <t>A 38854-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44834.54392361111</v>
+        <v>45887.55680555556</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13763,8 +13795,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13801,14 +13838,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 65582-2021</t>
+          <t>A 43303-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44516</v>
+        <v>44834.54392361111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13821,7 +13858,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>7.7</v>
+        <v>2.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13858,14 +13895,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 44408-2022</t>
+          <t>A 65582-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44839</v>
+        <v>44516</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13878,7 +13915,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.7</v>
+        <v>7.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13915,14 +13952,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 30141-2022</t>
+          <t>A 44408-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44757.48153935185</v>
+        <v>44839</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13935,7 +13972,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13972,14 +14009,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 2608-2025</t>
+          <t>A 30141-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45674</v>
+        <v>44757.48153935185</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13992,7 +14029,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14029,14 +14066,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 19358-2024</t>
+          <t>A 2608-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45429</v>
+        <v>45674</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14049,7 +14086,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>8.5</v>
+        <v>4.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14086,14 +14123,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 45048-2024</t>
+          <t>A 19358-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45575</v>
+        <v>45429</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14105,13 +14142,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14148,14 +14180,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 44814-2023</t>
+          <t>A 45048-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45190</v>
+        <v>45575</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14167,8 +14199,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>24.2</v>
+        <v>3.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14205,14 +14242,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 33932-2024</t>
+          <t>A 44814-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45523.43164351852</v>
+        <v>45190</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14225,7 +14262,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>24.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14262,14 +14299,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 52481-2025</t>
+          <t>A 33932-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45954.47333333334</v>
+        <v>45523.43164351852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14282,7 +14319,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14319,14 +14356,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 18162-2025</t>
+          <t>A 52481-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45761</v>
+        <v>45954.47333333334</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14339,7 +14376,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14376,14 +14413,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 53351-2025</t>
+          <t>A 18162-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45959.44415509259</v>
+        <v>45761</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14395,13 +14432,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14438,14 +14470,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 36476-2024</t>
+          <t>A 53351-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45537.36153935185</v>
+        <v>45959.44415509259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14457,8 +14489,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14495,14 +14532,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 54204-2025</t>
+          <t>A 36476-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45964.5841087963</v>
+        <v>45537.36153935185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14515,7 +14552,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14552,14 +14589,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 13050-2025</t>
+          <t>A 54204-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45734.59349537037</v>
+        <v>45964.5841087963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14571,13 +14608,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>7.4</v>
+        <v>1.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14614,14 +14646,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 6948-2023</t>
+          <t>A 13050-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44967.58497685185</v>
+        <v>45734.59349537037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14639,7 +14671,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.5</v>
+        <v>7.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14676,14 +14708,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 13847-2025</t>
+          <t>A 6948-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45737.56431712963</v>
+        <v>44967.58497685185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14701,7 +14733,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14738,14 +14770,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 54730-2025</t>
+          <t>A 13847-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45966.55922453704</v>
+        <v>45737.56431712963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14757,8 +14789,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14795,14 +14832,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 4981-2024</t>
+          <t>A 54730-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45329</v>
+        <v>45966.55922453704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14815,7 +14852,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14852,14 +14889,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 55114-2025</t>
+          <t>A 4981-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45968.38443287037</v>
+        <v>45329</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14872,7 +14909,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>15.5</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14909,14 +14946,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 51190-2024</t>
+          <t>A 55114-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45603.61458333334</v>
+        <v>45968.38443287037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14929,7 +14966,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.4</v>
+        <v>15.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14966,14 +15003,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 2071-2025</t>
+          <t>A 51190-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45672.56981481481</v>
+        <v>45603.61458333334</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14986,7 +15023,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15023,14 +15060,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 56298-2025</t>
+          <t>A 2071-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45974.60434027778</v>
+        <v>45672.56981481481</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15042,13 +15079,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15085,14 +15117,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 56301-2025</t>
+          <t>A 56298-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45974</v>
+        <v>45974.60434027778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15110,7 +15142,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15147,14 +15179,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 44621-2023</t>
+          <t>A 56301-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45189.64144675926</v>
+        <v>45974</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15166,8 +15198,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15204,14 +15241,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 56296-2025</t>
+          <t>A 44621-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45974.60321759259</v>
+        <v>45189.64144675926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15223,13 +15260,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15266,14 +15298,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 56294-2025</t>
+          <t>A 56296-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45974</v>
+        <v>45974.60321759259</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15291,7 +15323,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15328,14 +15360,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 56293-2025</t>
+          <t>A 56294-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45974.59898148148</v>
+        <v>45974</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15353,7 +15385,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15390,14 +15422,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 30147-2022</t>
+          <t>A 56293-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44757.49366898148</v>
+        <v>45974.59898148148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15409,8 +15441,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15447,14 +15484,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 56936-2025</t>
+          <t>A 30147-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45978.61762731482</v>
+        <v>44757.49366898148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15467,7 +15504,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15504,14 +15541,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 57048-2025</t>
+          <t>A 56936-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45979.34693287037</v>
+        <v>45978.61762731482</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15524,7 +15561,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15561,14 +15598,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 11034-2022</t>
+          <t>A 57048-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44628.58557870371</v>
+        <v>45979.34693287037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15581,7 +15618,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15618,14 +15655,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 57693-2025</t>
+          <t>A 11034-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45981.45151620371</v>
+        <v>44628.58557870371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15638,7 +15675,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15675,14 +15712,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 43567-2022</t>
+          <t>A 57693-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44837</v>
+        <v>45981.45151620371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15695,7 +15732,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15732,14 +15769,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 57318-2025</t>
+          <t>A 43567-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45980.01403935185</v>
+        <v>44837</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15751,13 +15788,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15794,14 +15826,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 57572-2025</t>
+          <t>A 57318-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45980.82129629629</v>
+        <v>45980.01403935185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15819,7 +15851,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15856,14 +15888,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 22793-2024</t>
+          <t>A 57572-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45448</v>
+        <v>45980.82129629629</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15875,8 +15907,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15913,14 +15950,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 46124-2022</t>
+          <t>A 22793-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44847</v>
+        <v>45448</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15933,7 +15970,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15970,14 +16007,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 46126-2022</t>
+          <t>A 46124-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
         <v>44847</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15990,7 +16027,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>17.5</v>
+        <v>8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16027,14 +16064,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 58079-2025</t>
+          <t>A 46126-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45982.55881944444</v>
+        <v>44847</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16047,7 +16084,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.5</v>
+        <v>17.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16084,14 +16121,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 41815-2023</t>
+          <t>A 58079-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45176.55569444445</v>
+        <v>45982.55881944444</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16104,7 +16141,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16141,14 +16178,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 68976-2021</t>
+          <t>A 41815-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44530</v>
+        <v>45176.55569444445</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16161,7 +16198,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>13.1</v>
+        <v>0.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16198,14 +16235,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 1290-2023</t>
+          <t>A 68976-2021</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44936.47363425926</v>
+        <v>44530</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16218,7 +16255,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>6</v>
+        <v>13.1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16255,14 +16292,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 60072-2025</t>
+          <t>A 1290-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45993.67482638889</v>
+        <v>44936.47363425926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16275,7 +16312,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16312,14 +16349,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 57297-2024</t>
+          <t>A 60072-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45629</v>
+        <v>45993.67482638889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16332,7 +16369,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16369,14 +16406,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 61322-2023</t>
+          <t>A 57297-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45264.57892361111</v>
+        <v>45629</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16389,7 +16426,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>17.5</v>
+        <v>1.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16426,14 +16463,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 59724-2025</t>
+          <t>A 61322-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45992.55136574074</v>
+        <v>45264.57892361111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16446,7 +16483,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.9</v>
+        <v>17.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16483,14 +16520,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 29934-2022</t>
+          <t>A 59724-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44757</v>
+        <v>45992.55136574074</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16503,7 +16540,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16540,14 +16577,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 23656-2023</t>
+          <t>A 29934-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45077.56179398148</v>
+        <v>44757</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16560,7 +16597,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16597,14 +16634,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 23658-2023</t>
+          <t>A 23656-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45077.56442129629</v>
+        <v>45077.56179398148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16617,7 +16654,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16654,14 +16691,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 10096-2025</t>
+          <t>A 23658-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45719.57665509259</v>
+        <v>45077.56442129629</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16673,13 +16710,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16716,14 +16748,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 60963-2025</t>
+          <t>A 10096-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45999.66793981481</v>
+        <v>45719.57665509259</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16735,8 +16767,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16773,14 +16810,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 22881-2024</t>
+          <t>A 60963-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45448.66190972222</v>
+        <v>45999.66793981481</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16793,7 +16830,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16830,14 +16867,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 15735-2024</t>
+          <t>A 22881-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45404</v>
+        <v>45448.66190972222</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16849,13 +16886,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16892,14 +16924,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 60830-2025</t>
+          <t>A 15735-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45999.46914351852</v>
+        <v>45404</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16911,8 +16943,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16949,14 +16986,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 20395-2025</t>
+          <t>A 60830-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45775</v>
+        <v>45999.46914351852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16969,7 +17006,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17006,14 +17043,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 39358-2024</t>
+          <t>A 20395-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45551</v>
+        <v>45775</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17026,7 +17063,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17063,14 +17100,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 63241-2023</t>
+          <t>A 39358-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45273</v>
+        <v>45551</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17083,7 +17120,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17120,14 +17157,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 11220-2023</t>
+          <t>A 63241-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44988</v>
+        <v>45273</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17140,7 +17177,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17177,14 +17214,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 54871-2024</t>
+          <t>A 11220-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45618.59935185185</v>
+        <v>44988</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17196,13 +17233,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17239,14 +17271,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 16430-2022</t>
+          <t>A 54871-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44671</v>
+        <v>45618.59935185185</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17258,8 +17290,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17296,14 +17333,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 4414-2026</t>
+          <t>A 16430-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>46044</v>
+        <v>44671</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17316,7 +17353,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17353,14 +17390,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 57514-2022</t>
+          <t>A 4414-2026</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44896</v>
+        <v>46044</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17373,7 +17410,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17410,14 +17447,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 4687-2023</t>
+          <t>A 57514-2022</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44957.46186342592</v>
+        <v>44896</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17430,7 +17467,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17467,14 +17504,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 4418-2026</t>
+          <t>A 4687-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>46044</v>
+        <v>44957.46186342592</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17487,7 +17524,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17524,14 +17561,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 52799-2021</t>
+          <t>A 4418-2026</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44467</v>
+        <v>46044</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17544,7 +17581,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17581,14 +17618,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 57760-2022</t>
+          <t>A 52799-2021</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44897</v>
+        <v>44467</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17601,7 +17638,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17638,14 +17675,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 5710-2026</t>
+          <t>A 57760-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>46051.51982638889</v>
+        <v>44897</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17657,13 +17694,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G276" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17700,14 +17732,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 62946-2025</t>
+          <t>A 5710-2026</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>46009.44358796296</v>
+        <v>46051.51982638889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17719,8 +17751,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G277" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17757,14 +17794,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 5711-2026</t>
+          <t>A 62946-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>46051.52146990741</v>
+        <v>46009.44358796296</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17776,13 +17813,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G278" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17819,14 +17851,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 17204-2023</t>
+          <t>A 5711-2026</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45034.91637731482</v>
+        <v>46051.52146990741</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17838,8 +17870,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G279" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17876,14 +17913,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 29456-2023</t>
+          <t>A 17204-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45106</v>
+        <v>45034.91637731482</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17896,7 +17933,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17933,14 +17970,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 62596-2025</t>
+          <t>A 29456-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>46007.91685185185</v>
+        <v>45106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17953,7 +17990,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17990,14 +18027,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 10972-2021</t>
+          <t>A 62596-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44260</v>
+        <v>46007.91685185185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18009,13 +18046,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G282" t="n">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -18052,14 +18084,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 18785-2025</t>
+          <t>A 10972-2021</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45764</v>
+        <v>44260</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18077,7 +18109,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -18114,14 +18146,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 18787-2025</t>
+          <t>A 18785-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
         <v>45764</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18139,7 +18171,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>9.699999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -18176,14 +18208,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 37660-2022</t>
+          <t>A 18787-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44810.44481481481</v>
+        <v>45764</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18195,8 +18227,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G285" t="n">
-        <v>1.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -18233,14 +18270,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 37776-2022</t>
+          <t>A 37660-2022</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44810.64696759259</v>
+        <v>44810.44481481481</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18252,13 +18289,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G286" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -18295,14 +18327,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 5712-2026</t>
+          <t>A 37776-2022</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>46051.52265046296</v>
+        <v>44810.64696759259</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18320,7 +18352,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -18357,14 +18389,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 29749-2022</t>
+          <t>A 5712-2026</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44755</v>
+        <v>46051.52265046296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18376,8 +18408,13 @@
           <t>KÖPING</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G288" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -18414,14 +18451,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 37669-2023</t>
+          <t>A 29749-2022</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45159.55391203704</v>
+        <v>44755</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18434,7 +18471,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -18471,14 +18508,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 63448-2025</t>
+          <t>A 37669-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>46013.40564814815</v>
+        <v>45159.55391203704</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18491,7 +18528,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -18528,14 +18565,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 55835-2021</t>
+          <t>A 63448-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44476.62849537037</v>
+        <v>46013.40564814815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18548,7 +18585,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -18585,14 +18622,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 51412-2023</t>
+          <t>A 55835-2021</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45219.71002314815</v>
+        <v>44476.62849537037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18605,7 +18642,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -18642,14 +18679,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 56287-2025</t>
+          <t>A 51412-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45974</v>
+        <v>45219.71002314815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18661,13 +18698,8 @@
           <t>KÖPING</t>
         </is>
       </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G293" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -18711,7 +18743,7 @@
         <v>45219.30594907407</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18768,7 +18800,7 @@
         <v>45152.56538194444</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18825,7 +18857,7 @@
         <v>46020.57383101852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18882,7 +18914,7 @@
         <v>44456</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18944,7 +18976,7 @@
         <v>46007.4880324074</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19001,7 +19033,7 @@
         <v>45366.67637731481</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19063,7 +19095,7 @@
         <v>45463.7021875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19120,7 +19152,7 @@
         <v>46010.63621527778</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19177,7 +19209,7 @@
         <v>44751.34050925926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19234,7 +19266,7 @@
         <v>45547</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19291,7 +19323,7 @@
         <v>45659</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19348,7 +19380,7 @@
         <v>44545</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19405,7 +19437,7 @@
         <v>45618.59675925926</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19467,7 +19499,7 @@
         <v>45618.59804398148</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19529,7 +19561,7 @@
         <v>45579</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19586,7 +19618,7 @@
         <v>44574</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19643,7 +19675,7 @@
         <v>45510.66086805556</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19700,7 +19732,7 @@
         <v>45189.63728009259</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19757,7 +19789,7 @@
         <v>45734</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19819,7 +19851,7 @@
         <v>45734.5908449074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19881,7 +19913,7 @@
         <v>45734.59259259259</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19943,7 +19975,7 @@
         <v>45219.69724537037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20000,7 +20032,7 @@
         <v>45170.60081018518</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20062,7 +20094,7 @@
         <v>44363.54297453703</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20119,7 +20151,7 @@
         <v>45553.41850694444</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20176,7 +20208,7 @@
         <v>45392.63758101852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20233,7 +20265,7 @@
         <v>44911.4296412037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20290,7 +20322,7 @@
         <v>45021</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20347,7 +20379,7 @@
         <v>45392.56596064815</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20404,7 +20436,7 @@
         <v>45370.47395833334</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20461,7 +20493,7 @@
         <v>45370.53177083333</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20518,7 +20550,7 @@
         <v>45051</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20575,7 +20607,7 @@
         <v>45770.57755787037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20632,7 +20664,7 @@
         <v>44985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20689,7 +20721,7 @@
         <v>45764</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20751,7 +20783,7 @@
         <v>45401</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20813,7 +20845,7 @@
         <v>45160.69415509259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20870,7 +20902,7 @@
         <v>44810.59604166666</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20927,7 +20959,7 @@
         <v>45098.62</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20984,7 +21016,7 @@
         <v>45358.75983796296</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21041,7 +21073,7 @@
         <v>45261</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21103,7 +21135,7 @@
         <v>45680</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21160,7 +21192,7 @@
         <v>45480</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21217,7 +21249,7 @@
         <v>45264.60923611111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21274,7 +21306,7 @@
         <v>45770.56731481481</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21331,7 +21363,7 @@
         <v>44908.45452546296</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21388,7 +21420,7 @@
         <v>45076</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21445,7 +21477,7 @@
         <v>44581</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21502,7 +21534,7 @@
         <v>44839</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21559,7 +21591,7 @@
         <v>45078.40652777778</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21616,7 +21648,7 @@
         <v>45418</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21673,7 +21705,7 @@
         <v>45558</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21730,7 +21762,7 @@
         <v>45595.51947916667</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21787,7 +21819,7 @@
         <v>44733</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21844,7 +21876,7 @@
         <v>45273.65958333333</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21901,7 +21933,7 @@
         <v>44757.3716087963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21958,7 +21990,7 @@
         <v>44529.6944212963</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22015,7 +22047,7 @@
         <v>45227.3034837963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22072,7 +22104,7 @@
         <v>45551.43763888889</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22129,7 +22161,7 @@
         <v>45762</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22186,7 +22218,7 @@
         <v>44438.43557870371</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22243,7 +22275,7 @@
         <v>44678.5628125</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22300,7 +22332,7 @@
         <v>44428.42920138889</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22357,7 +22389,7 @@
         <v>44658</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22414,7 +22446,7 @@
         <v>44658.50546296296</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22471,7 +22503,7 @@
         <v>45734</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22533,7 +22565,7 @@
         <v>45734.59141203704</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22595,7 +22627,7 @@
         <v>44508.71445601852</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22652,7 +22684,7 @@
         <v>45779.38344907408</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22714,7 +22746,7 @@
         <v>45603.57417824074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22771,7 +22803,7 @@
         <v>45783.49538194444</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22828,7 +22860,7 @@
         <v>45667</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22885,7 +22917,7 @@
         <v>45630.37325231481</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22942,7 +22974,7 @@
         <v>45601.36454861111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22999,7 +23031,7 @@
         <v>45303.50130787037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23056,7 +23088,7 @@
         <v>45665</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23113,7 +23145,7 @@
         <v>45525.53819444445</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23170,7 +23202,7 @@
         <v>45480.5384375</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23227,7 +23259,7 @@
         <v>45665</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23284,7 +23316,7 @@
         <v>45798.38157407408</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23346,7 +23378,7 @@
         <v>45798</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23408,7 +23440,7 @@
         <v>45798</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23470,7 +23502,7 @@
         <v>45480.54915509259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23527,7 +23559,7 @@
         <v>45798.36815972222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23589,7 +23621,7 @@
         <v>45798.37822916666</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23651,7 +23683,7 @@
         <v>45669.71475694444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23708,7 +23740,7 @@
         <v>45798.37075231481</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23770,7 +23802,7 @@
         <v>45798.37363425926</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23832,7 +23864,7 @@
         <v>45798</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23894,7 +23926,7 @@
         <v>45798.37938657407</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23956,7 +23988,7 @@
         <v>45803.43010416667</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24013,7 +24045,7 @@
         <v>45810.66447916667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24075,7 +24107,7 @@
         <v>45810.65856481482</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24137,7 +24169,7 @@
         <v>45810.66362268518</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24199,7 +24231,7 @@
         <v>45810.69605324074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24261,7 +24293,7 @@
         <v>45812.40445601852</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24318,7 +24350,7 @@
         <v>45817.35802083334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24375,7 +24407,7 @@
         <v>45691</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>

--- a/Översikt KÖPING.xlsx
+++ b/Översikt KÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44377</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45624</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45411.65774305556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>45411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>45734.59789351852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>44349.64474537037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>45026</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44339</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44468</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>44389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>45700.3262962963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45734.6059837963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>45819.47195601852</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45897.28859953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>45841</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>45776.48415509259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45931.39806712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>45237</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>45937.38243055555</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45946.41099537037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45974</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>45974</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>45853</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>45762.56619212963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>45974</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45915.36554398148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>44627.9190625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>45618.59756944444</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>45776</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>45503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44285.6284837963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>44351</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>44267</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44379</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>44525</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>44265</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>44797</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         <v>44445.60908564815</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44257</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44532.44113425926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44479</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44488.72770833333</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>44442.70611111111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>44412.78136574074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44267</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44484.56916666667</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44614</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44825.57694444444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44831.55696759259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44351.48048611111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44532.43004629629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44441.60780092593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44393</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44472</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44539</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44683</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44613</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44797</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44868.61140046296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44553.44221064815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>44658.49731481481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44658.51559027778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44538</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44785</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44770.66182870371</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>44545</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>44496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44721</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44673</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>45035.65481481481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>45734.59349537037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>45227.3034837963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>44839</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>45386</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>45532</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>45322.65049768519</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>45401.63582175926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44810.64696759259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>45219.30594907407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>44757.49366898148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>44834.54392361111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>44810.59604166666</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>44847</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>45463.7021875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>45138</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>44957.46186342592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>45273.65958333333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>44840</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>45429</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>44945.43571759259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>45480</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45618.59935185185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>45551</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44671</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45672.56321759259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45558</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45558.55979166667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45810.65856481482</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44914</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>45887.55680555556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>45618.59853009259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45737.56431712963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>45810.69605324074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>45219.69724537037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>45887.55572916667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>45810.66447916667</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>45810.66362268518</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>45749.34443287037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>45888.30837962963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>45887.55859953703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>45812.40445601852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44428.42920138889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44623.68829861111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>45560.43570601852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45691</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45817.35802083334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>45817.67819444444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>45152.56538194444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44936.47363425926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>45820.61172453704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>45819.47072916666</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>45404</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>45824.51021990741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>45895.76636574074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>45896.33552083333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>45897.34274305555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44888.57140046296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>45897.32975694445</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>45897.32721064815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>45897.33090277778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>45897.33193287037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>45897.32894675926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>45897.39564814815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>45846.50275462963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>45826.87413194445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>45839.57179398148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44476.62849537037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45902.37306712963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>45903.46909722222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>44722</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45903.47314814815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45832.57935185185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>45908.6871875</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>45832.57855324074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>45905.91143518518</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>45833.68644675926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>45401</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>45833</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>45834</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         <v>45770.57755787037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>45834.5888425926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>45834</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>45905.90875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>45905.90976851852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44655.78577546297</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>45905.91082175926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>45905.92460648148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>45910</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>45833</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>45910</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45910.54754629629</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>45910</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>45762</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>45910</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>45098.62</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11972,7 +11972,7 @@
         <v>45841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>45910</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>45910.42025462963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>45618.59675925926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>45618.59804398148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>45841</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12339,7 +12339,7 @@
         <v>45841</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>45841</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>45841</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>45583.36162037037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>45356.38356481482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>45779</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44470</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>45915.60108796296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>45159</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>45826</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>45659</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>45931.58202546297</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>45931.39986111111</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>45477.60447916666</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>45873</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>44581</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>44757.48153935185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>45931.62083333333</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>45931.40219907407</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
         <v>45771</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>45933.57945601852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>45051</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>44733</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>45933.62094907407</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45933.62429398148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>45764</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13861,7 +13861,7 @@
         <v>45764</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>45719.5787037037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45273</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45937.57011574074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>45937.57126157408</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>45672.56981481481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44530</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44441</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>45937.38329861111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44985</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>45937.55361111111</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44915</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44467</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>45235</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44897</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44847</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>45575</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>45547</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>45537.36153935185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>45553.41850694444</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>45761</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44508.71445601852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>45077.56179398148</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>45077.56442129629</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>45954.47333333334</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45959.44415509259</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44545</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44456</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45964.5841087963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45358.75983796296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44999.88789351852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45966.55922453704</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45418</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>45488</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44530</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>45278</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>45968.38443287037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>45078.40652777778</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>45166</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>45974.60434027778</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>45974</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>45106</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>45974.59898148148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>45974</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>45477.58703703704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>45974.60321759259</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>45978.61762731482</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>45980.01403935185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>45979.34693287037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>45981.45151620371</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>44988</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>45982.55881944444</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>45980.82129629629</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44516</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>45160.69415509259</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44512</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>45775</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>45411.63599537037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>45370.47395833334</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>45370.53177083333</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>45764</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>45191.69444444445</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44628.58557870371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>45170.60081018518</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>45993.67482638889</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>45992.55136574074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>45999.66793981481</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>45999.46914351852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>44606</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>45076</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44810.44481481481</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>45629</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>45762</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>46044</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>46044</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>44658</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>44658.50546296296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>45401.63344907408</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>45456</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>46007.91685185185</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>46051.51982638889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>46009.44358796296</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>46051.52146990741</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>46051.52265046296</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>46013.40564814815</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>45170.60415509259</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>44757</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45190</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>45366.67637731481</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>46007.4880324074</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>46020.57383101852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45219.71002314815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45680</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>44757.3716087963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>45076</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>46010.63621527778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>45264.57892361111</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>44827</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>45734</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>45734.5908449074</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         <v>45734.59259259259</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19825,7 +19825,7 @@
         <v>45264.60923611111</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>45392.63758101852</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>46076.67814814814</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>45448</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>45261</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45523</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>44678.5628125</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44908.45452546296</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>44574</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45034.91637731482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>44911.4296412037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45021</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45189.64144675926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45463.69828703703</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>44260</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>45313</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44917</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44967.58497685185</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44363.54297453703</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>44623</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45035.48342592592</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>44516.75021990741</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44914.61438657407</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44553.43238425926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45189.63728009259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44741</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44837</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44529.6944212963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45551.43763888889</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45176.55569444445</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45159.55391203704</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>45734</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44967.58563657408</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>45523.43164351852</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44839</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21855,7 +21855,7 @@
         <v>44751.34050925926</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
         <v>45329</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>45770.56731481481</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45603.61458333334</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>44701.40878472223</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44438.43557870371</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44755</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45219.32967592592</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45719.57665509259</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45392.56596064815</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45595.51947916667</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>45667</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>45579</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>45579</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44810.56791666667</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>45510.66086805556</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>45674</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>45219.69122685185</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>45448.66190972222</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>45734</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45734.59141203704</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>45779.38344907408</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>45630.37325231481</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>45603.57417824074</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>45783.49538194444</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>45667</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>45601.36454861111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>45303.50130787037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>45665</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>45525.53819444445</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>45480.5384375</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>45665</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>45798</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>45480.54915509259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>45798.38157407408</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>45798.37075231481</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>45798.37363425926</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24009,7 +24009,7 @@
         <v>45798</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24071,7 +24071,7 @@
         <v>45798.37938657407</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>45798.37822916666</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24195,7 +24195,7 @@
         <v>45798</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24257,7 +24257,7 @@
         <v>45798.36815972222</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>45669.71475694444</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>45803.43010416667</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
